--- a/datamining/final_data/topic9_candidates.xlsx
+++ b/datamining/final_data/topic9_candidates.xlsx
@@ -436,817 +436,817 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>('computational', 'thinking')</t>
+          <t>('주의', '집중')</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.23321</v>
+        <v>0.6098426666666666</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>('중도', '탈락')</t>
+          <t>('부족', '실정')</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.11936</v>
+        <v>0.491443</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>('산업', '혁명')</t>
+          <t>('흥미', '유발')</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.46523</v>
+        <v>0.4864479999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>('의사', '결정')</t>
+          <t>('주도', '학습력')</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.21118</v>
+        <v>0.4741589999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>('증강', '현실')</t>
+          <t>('기회', '제공')</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.12072</v>
+        <v>0.4719758333333333</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '과서')</t>
+          <t>('동기', '유발')</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.15959</v>
+        <v>0.4563035</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>('인재', '양성')</t>
+          <t>('기여', '기대')</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.43489</v>
+        <v>0.4501515</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>('대응', '표본')</t>
+          <t>('한계', '극복')</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.34552</v>
+        <v>0.4186306666666667</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>('학급', '경영')</t>
+          <t>('수정', '보완')</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.08424</v>
+        <v>0.4175868333333334</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '정학습')</t>
+          <t>('긍정', '반응')</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.09714</v>
+        <v>0.3997598333333333</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>('사전', '사후')</t>
+          <t>('자기', '주도')</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.38665</v>
+        <v>0.3984895000000001</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>('플립', '러닝')</t>
+          <t>('집단', '통제')</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.211</v>
+        <v>0.3938161666666667</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>('상호', '작용')</t>
+          <t>('재량', '활동')</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3001</v>
+        <v>0.3729201666666667</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>('혁명', '시대')</t>
+          <t>('도움', '기대')</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.45514</v>
+        <v>0.3709253333333333</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>('학업', '성취도')</t>
+          <t>('기술', '발달')</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.36436</v>
+        <v>0.35839</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>('지속', '의향')</t>
+          <t>('긍정', '영향')</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.09624000000000001</v>
+        <v>0.3482611666666666</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>('주도', '학습력')</t>
+          <t>('산업', '혁명')</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.53121</v>
+        <v>0.3475228333333333</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>('표본', '검정')</t>
+          <t>('통계', '유의미')</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.32864</v>
+        <v>0.344133</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>('자기', '주도')</t>
+          <t>('방안', '모색')</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.45379</v>
+        <v>0.3431291666666667</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>('프레임', '임워크')</t>
+          <t>('목적', '달성')</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.37106</v>
+        <v>0.3423653333333333</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>('문헌', '고찰')</t>
+          <t>('인재', '양성')</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.19385</v>
+        <v>0.338627</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>('다중', '지능')</t>
+          <t>('혁명', '시대')</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.27768</v>
+        <v>0.3379576666666667</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>('윤리', '의식')</t>
+          <t>('시사점', '도출')</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.1666</v>
+        <v>0.3343153333333334</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>('자기', '조절')</t>
+          <t>('학기', '동안')</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.15514</v>
+        <v>0.3333585</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>('통제', '집단')</t>
+          <t>('학교', '현장')</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.29398</v>
+        <v>0.325186</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>('상관', '관계')</t>
+          <t>('학업', '성취도')</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.3014</v>
+        <v>0.3078406666666667</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>('통신', '윤리')</t>
+          <t>('핵심', '역량')</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.08860999999999999</v>
+        <v>0.3049221666666667</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>('성취', '기준')</t>
+          <t>('비판', '사고력')</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.22577</v>
+        <v>0.2934545</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>('사후', '검사')</t>
+          <t>('유의', '차이')</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.30515</v>
+        <v>0.2867081666666667</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>('피지컬', '컴퓨팅')</t>
+          <t>('학업', '성취')</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.13112</v>
+        <v>0.2864348333333333</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>('학업', '성취')</t>
+          <t>('사전', '사후')</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.33893</v>
+        <v>0.2842625</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>('통계', '유의미')</t>
+          <t>('설계', '구현')</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.43726</v>
+        <v>0.284255</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>('디지털', '스토리텔링')</t>
+          <t>('설문', '조사')</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.1665</v>
+        <v>0.281829</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>('동기', '유발')</t>
+          <t>('유의미', '차이')</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.54426</v>
+        <v>0.278376</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>('자기', '효능감')</t>
+          <t>('문제', '해결')</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.17096</v>
+        <v>0.27152</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>('과제', '표절')</t>
+          <t>('스마트', '기기')</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.0155</v>
+        <v>0.2689386666666667</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>('컴퓨팅', '사고력')</t>
+          <t>('프레임', '임워크')</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.13583</v>
+        <v>0.2650228333333333</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>('학급', '홈페이지')</t>
+          <t>('문제', '해결능력')</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.14923</v>
+        <v>0.254907</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>('문제', '해결력')</t>
+          <t>('실험', '집단')</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.23934</v>
+        <v>0.2537378333333333</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>('공공', '서비스')</t>
+          <t>('통계', '유의')</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.03883</v>
+        <v>0.2481571666666667</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>('논리', '사고력')</t>
+          <t>('상호', '작용')</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.19965</v>
+        <v>0.2437138333333333</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>('통계', '유의')</t>
+          <t>('통제', '집단')</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.33159</v>
+        <v>0.2372531666666667</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>('과제', '가치')</t>
+          <t>('대응', '표본')</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.06276</v>
+        <v>0.2229436666666667</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>('설문', '조사')</t>
+          <t>('상관', '관계')</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.3709</v>
+        <v>0.2219076666666667</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>('목적', '달성')</t>
+          <t>('다중', '지능')</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.43715</v>
+        <v>0.2150796666666667</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>('유의미', '차이')</t>
+          <t>('표본', '검정')</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.35858</v>
+        <v>0.2106863333333333</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>('성격', '유형')</t>
+          <t>('사후', '검사')</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.12572</v>
+        <v>0.209793</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>('디자인', '사고')</t>
+          <t>('통신', '기술')</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.05909</v>
+        <v>0.2033076666666667</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>('인터넷', '중독')</t>
+          <t>('문제', '해결력')</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.07936</v>
+        <v>0.2000123333333333</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>('표준', '모델')</t>
+          <t>('요구', '사항')</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.22293</v>
+        <v>0.1967268333333334</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>('한계', '극복')</t>
+          <t>('플립', '러닝')</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.52702</v>
+        <v>0.1934961666666667</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>('주의', '집중')</t>
+          <t>('성취', '기준')</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.67152</v>
+        <v>0.1895826666666667</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>('실험', '집단')</t>
+          <t>('개선', '방안')</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.31291</v>
+        <v>0.1879108333333334</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>('디지털', '리터러시')</t>
+          <t>('프로그래밍', '언어')</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.11998</v>
+        <v>0.1878838333333333</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>('사회', '연결망')</t>
+          <t>('addie', '모형')</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.14558</v>
+        <v>0.1874968333333333</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>('시사점', '도출')</t>
+          <t>('표준', '모델')</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.44294</v>
+        <v>0.1787475</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>('유의', '차이')</t>
+          <t>('computational', 'thinking')</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.34812</v>
+        <v>0.1656566666666667</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>('방안', '모색')</t>
+          <t>('의사', '결정')</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.43772</v>
+        <v>0.1647831666666667</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>('게임', '중독')</t>
+          <t>('논리', '사고력')</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.07593</v>
+        <v>0.1616703333333333</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>('학기', '동안')</t>
+          <t>('운영', '체제')</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.45324</v>
+        <v>0.1591171666666667</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>('기여', '기대')</t>
+          <t>('지식', '창출')</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.5379</v>
+        <v>0.1550008333333333</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>('흥미', '유발')</t>
+          <t>('문헌', '고찰')</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.5921</v>
+        <v>0.1492001666666667</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '상담실')</t>
+          <t>('자기', '효능감')</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.07969999999999999</v>
+        <v>0.1451396666666667</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>('예비', '교원')</t>
+          <t>('디지털', '스토리텔링')</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.15546</v>
+        <v>0.1368736666666667</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>('지식', '창출')</t>
+          <t>('윤리', '의식')</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.19664</v>
+        <v>0.1362788333333333</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>('문제', '해결')</t>
+          <t>('자기', '조절')</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.33018</v>
+        <v>0.1353928333333333</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>('정렬', '알고리즘')</t>
+          <t>('컴퓨팅', '사고')</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.14668</v>
+        <v>0.1315325</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>('요구', '사항')</t>
+          <t>('디지털교과서', '과서')</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.25538</v>
+        <v>0.1290551666666667</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>('통신', '기술')</t>
+          <t>('정보', '통신')</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.25532</v>
+        <v>0.1270826666666666</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>('코딩', '강사')</t>
+          <t>('정렬', '알고리즘')</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.05089</v>
+        <v>0.1255436666666667</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>('ict', '리터러시')</t>
+          <t>('예비', '교사')</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.07686</v>
+        <v>0.1207841666666667</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>('긍정', '반응')</t>
+          <t>('학급', '홈페이지')</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.49343</v>
+        <v>0.1180306666666667</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>('addie', '모형')</t>
+          <t>('예비', '교원')</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.26272</v>
+        <v>0.113996</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>('중독', '치료')</t>
+          <t>('사회', '실재감')</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.11413</v>
+        <v>0.1043221666666667</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>('영재', '판별')</t>
+          <t>('컴퓨팅', '사고력')</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.12285</v>
+        <v>0.1024855</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>('예비', '교사')</t>
+          <t>('피지컬', '컴퓨팅')</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.15689</v>
+        <v>0.09840216666666665</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>('데이터', '시각')</t>
+          <t>('증강', '현실')</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.08099000000000001</v>
+        <v>0.09785799999999999</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>('수정', '보완')</t>
+          <t>('사회', '연결망')</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.53002</v>
+        <v>0.09759699999999999</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>('설계', '구현')</t>
+          <t>('성격', '유형')</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.34914</v>
+        <v>0.09554849999999999</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>('운영', '체제')</t>
+          <t>('중도', '탈락')</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.19719</v>
+        <v>0.08884183333333333</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>('문제', '해결능력')</t>
+          <t>('영재', '판별')</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.31882</v>
+        <v>0.08621983333333333</v>
       </c>
     </row>
     <row r="83">
@@ -1256,67 +1256,67 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.11366</v>
+        <v>0.0861975</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>('부족', '실정')</t>
+          <t>('디지털', '리터러시')</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.57719</v>
+        <v>0.08290449999999999</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>('개선', '방안')</t>
+          <t>('중독', '치료')</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.24073</v>
+        <v>0.08191966666666667</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>('기술', '발달')</t>
+          <t>('사이버', '정학습')</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.46286</v>
+        <v>0.07571383333333334</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>('프로그래밍', '언어')</t>
+          <t>('지속', '의향')</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.2393</v>
+        <v>0.07079566666666667</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>('기회', '제공')</t>
+          <t>('통신', '윤리')</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.59454</v>
+        <v>0.06945733333333333</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>('iptv', '유아')</t>
+          <t>('학급', '경영')</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.03557</v>
+        <v>0.06926416666666665</v>
       </c>
     </row>
     <row r="90">
@@ -1326,117 +1326,117 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.09884</v>
+        <v>0.06256366666666666</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>('학교', '현장')</t>
+          <t>('게임', '중독')</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.4078</v>
+        <v>0.05929133333333333</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>('컴퓨팅', '사고')</t>
+          <t>('인터넷', '중독')</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.18891</v>
+        <v>0.05803366666666666</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>('도움', '기대')</t>
+          <t>('사이버', '상담실')</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.46935</v>
+        <v>0.05527866666666666</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>('긍정', '영향')</t>
+          <t>('데이터', '시각')</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.44282</v>
+        <v>0.05468683333333334</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>('정보', '통신')</t>
+          <t>('ict', '리터러시')</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.15974</v>
+        <v>0.05166783333333333</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>('집단', '통제')</t>
+          <t>('과제', '가치')</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.48775</v>
+        <v>0.04820199999999999</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>('사회', '실재감')</t>
+          <t>('디자인', '사고')</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.12598</v>
+        <v>0.0395455</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>('핵심', '역량')</t>
+          <t>('코딩', '강사')</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.39306</v>
+        <v>0.02923733333333333</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>('재량', '활동')</t>
+          <t>('iptv', '유아')</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.44049</v>
+        <v>0.018032</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>('비판', '사고력')</t>
+          <t>('공공', '서비스')</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.34706</v>
+        <v>0.01657583333333334</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>('스마트', '기기')</t>
+          <t>('과제', '표절')</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.34308</v>
+        <v>0.01004066666666667</v>
       </c>
     </row>
   </sheetData>

--- a/datamining/final_data/topic9_candidates.xlsx
+++ b/datamining/final_data/topic9_candidates.xlsx
@@ -442,1001 +442,1001 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>('주의', '집중')</t>
+          <t>('의', '자기', '주도')</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6098426666666666</v>
+        <v>0.5781525000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>('부족', '실정')</t>
+          <t>('결과', '다음', '같')</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.491443</v>
+        <v>0.4717026666666666</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>('흥미', '유발')</t>
+          <t>('연구', '제시', 'ㄴ')</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4864479999999999</v>
+        <v>0.4700518333333334</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>('주도', '학습력')</t>
+          <t>('세기', '지식', '정보')</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4741589999999999</v>
+        <v>0.468845</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>('기회', '제공')</t>
+          <t>('학습자', '중심', '의')</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4719758333333333</v>
+        <v>0.4628216666666666</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>('동기', '유발')</t>
+          <t>('향상', '긍정', 'ㄴ')</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4563035</v>
+        <v>0.4616311666666667</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>('기여', '기대')</t>
+          <t>('ㄴ', '인재', '양성')</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4501515</v>
+        <v>0.4508125</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>('한계', '극복')</t>
+          <t>('중', '의', '하나')</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.4186306666666667</v>
+        <v>0.4337536666666666</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>('수정', '보완')</t>
+          <t>('유', '미', 'ㄴ')</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.4175868333333334</v>
+        <v>0.4329866666666667</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>('긍정', '반응')</t>
+          <t>('자기', '주도', '학습')</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3997598333333333</v>
+        <v>0.4298826666666667</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>('자기', '주도')</t>
+          <t>('집단', '통제', '집단')</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3984895000000001</v>
+        <v>0.4261945</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>('집단', '통제')</t>
+          <t>('학생', '명', '대상')</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3938161666666667</v>
+        <v>0.4090703333333334</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>('재량', '활동')</t>
+          <t>('얻', '을', '수')</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3729201666666667</v>
+        <v>0.392544</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>('도움', '기대')</t>
+          <t>('정보교육', '학', '회')</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.3709253333333333</v>
+        <v>0.379019</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>('기술', '발달')</t>
+          <t>('정보교육', '학')</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.35839</v>
+        <v>0.379019</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>('긍정', '영향')</t>
+          <t>('수준', '맞', '는')</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3482611666666666</v>
+        <v>0.3789053333333333</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>('산업', '혁명')</t>
+          <t>('점', '의의', '있')</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.3475228333333333</v>
+        <v>0.3778126666666667</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>('통계', '유의미')</t>
+          <t>('지식', '정보', '사회')</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.344133</v>
+        <v>0.3774473333333334</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>('방안', '모색')</t>
+          <t>('있', '을', '것')</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.3431291666666667</v>
+        <v>0.37625</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>('목적', '달성')</t>
+          <t>('목적', '달성', '위하')</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.3423653333333333</v>
+        <v>0.3701985</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>('인재', '양성')</t>
+          <t>('는', '영향', '분석')</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.338627</v>
+        <v>0.3674061666666667</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>('혁명', '시대')</t>
+          <t>('유', '미')</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.3379576666666667</v>
+        <v>0.3650396666666667</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>('시사점', '도출')</t>
+          <t>('ㄴ', '형태', '의')</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.3343153333333334</v>
+        <v>0.3638636666666667</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>('학기', '동안')</t>
+          <t>('산업', '혁명', '시대')</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.3333585</v>
+        <v>0.359074</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>('학교', '현장')</t>
+          <t>('인재', '양성', '위하')</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.325186</v>
+        <v>0.3583843333333333</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>('학업', '성취도')</t>
+          <t>('차', '산업', '혁명')</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.3078406666666667</v>
+        <v>0.3573798333333333</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>('핵심', '역량')</t>
+          <t>('다는', '점', '의의')</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.3049221666666667</v>
+        <v>0.3560525</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>('비판', '사고력')</t>
+          <t>('분석', '그', '결과')</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.2934545</v>
+        <v>0.3510435</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>('유의', '차이')</t>
+          <t>('학', '회')</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.2867081666666667</v>
+        <v>0.3505223333333333</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>('학업', '성취')</t>
+          <t>('찾', '을', '수')</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.2864348333333333</v>
+        <v>0.3481903333333333</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>('사전', '사후')</t>
+          <t>('산업', '혁명')</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.2842625</v>
+        <v>0.347723</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>('설계', '구현')</t>
+          <t>('기술', '의', '발달')</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.284255</v>
+        <v>0.3412045</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>('설문', '조사')</t>
+          <t>('인재', '양성')</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.281829</v>
+        <v>0.3388906666666667</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>('유의미', '차이')</t>
+          <t>('도움', '주', 'ㄹ')</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.278376</v>
+        <v>0.3367651666666667</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>('문제', '해결')</t>
+          <t>('재량', '활동', '시간')</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.27152</v>
+        <v>0.3366606666666667</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>('스마트', '기기')</t>
+          <t>('이', '같', '은')</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.2689386666666667</v>
+        <v>0.3114991666666667</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>('프레임', '임워크')</t>
+          <t>('과정', '표준', '모델')</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.2650228333333333</v>
+        <v>0.3077801666666667</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>('문제', '해결능력')</t>
+          <t>('ㄴ', '관심', '높')</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.254907</v>
+        <v>0.3075423333333334</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>('실험', '집단')</t>
+          <t>('ㄴ', '기초', '자료')</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.2537378333333333</v>
+        <v>0.3004213333333333</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>('통계', '유의')</t>
+          <t>('는', '데', '있')</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.2481571666666667</v>
+        <v>0.2999571666666666</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>('상호', '작용')</t>
+          <t>('설문', '조사', '실시')</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.2437138333333333</v>
+        <v>0.2998908333333333</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>('통제', '집단')</t>
+          <t>('자', '기', '주도')</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.2372531666666667</v>
+        <v>0.2940948333333333</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>('대응', '표본')</t>
+          <t>('분석', '분석', '결과')</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.2229436666666667</v>
+        <v>0.2875916666666667</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>('상관', '관계')</t>
+          <t>('기', '주도', '학습')</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.2219076666666667</v>
+        <v>0.2854848333333334</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>('다중', '지능')</t>
+          <t>('사전', '사후')</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.2150796666666667</v>
+        <v>0.2844606666666666</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>('표본', '검정')</t>
+          <t>('자', '기')</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.2106863333333333</v>
+        <v>0.2701663333333333</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>('사후', '검사')</t>
+          <t>('표본', 't')</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.209793</v>
+        <v>0.2689938333333334</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>('통신', '기술')</t>
+          <t>('영향', '주', '는')</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.2033076666666667</v>
+        <v>0.2644886666666666</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>('문제', '해결력')</t>
+          <t>('것', '알', 'ㄹ')</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.2000123333333333</v>
+        <v>0.2617038333333334</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>('요구', '사항')</t>
+          <t>('ㄹ', '필요', '있')</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.1967268333333334</v>
+        <v>0.2560656666666667</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>('플립', '러닝')</t>
+          <t>('t', '검정')</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.1934961666666667</v>
+        <v>0.2487161666666666</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>('성취', '기준')</t>
+          <t>('사전', '사후', '검사')</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.1895826666666667</v>
+        <v>0.245906</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>('개선', '방안')</t>
+          <t>('주도', '학습', '능력')</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.1879108333333334</v>
+        <v>0.2458885</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>('프로그래밍', '언어')</t>
+          <t>('상호', '작용')</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.1878838333333333</v>
+        <v>0.2442815</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>('addie', '모형')</t>
+          <t>('스', '스마트', '교육')</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.1874968333333333</v>
+        <v>0.2401648333333334</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>('표준', '모델')</t>
+          <t>('통신', '기술', '교육')</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.1787475</v>
+        <v>0.2326538333333333</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>('computational', 'thinking')</t>
+          <t>('대응', '표본')</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.1656566666666667</v>
+        <v>0.2229436666666667</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>('의사', '결정')</t>
+          <t>('대응', '표본', 't')</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.1647831666666667</v>
+        <v>0.2229436666666667</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>('논리', '사고력')</t>
+          <t>('표본', 't', '검정')</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.1616703333333333</v>
+        <v>0.2106863333333333</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>('운영', '체제')</t>
+          <t>('영', '재')</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.1591171666666667</v>
+        <v>0.1986486666666666</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>('지식', '창출')</t>
+          <t>('플립', '러닝')</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.1550008333333333</v>
+        <v>0.1934961666666667</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>('문헌', '고찰')</t>
+          <t>('메', '타')</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.1492001666666667</v>
+        <v>0.192225</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>('자기', '효능감')</t>
+          <t>('문제', '중심', '학습')</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.1451396666666667</v>
+        <v>0.1904875</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>('디지털', '스토리텔링')</t>
+          <t>('정보', '영', '재')</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.1368736666666667</v>
+        <v>0.1768893333333333</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>('윤리', '의식')</t>
+          <t>('예비', '교원', '의')</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.1362788333333333</v>
+        <v>0.1728546666666667</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>('자기', '조절')</t>
+          <t>('computational', 'thinking')</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.1353928333333333</v>
+        <v>0.165827</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>('컴퓨팅', '사고')</t>
+          <t>('의사', '결정')</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.1315325</v>
+        <v>0.1653878333333333</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '과서')</t>
+          <t>('동', '영', '상')</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.1290551666666667</v>
+        <v>0.161427</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>('정보', '통신')</t>
+          <t>('초등', '예비', '교사')</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.1270826666666666</v>
+        <v>0.1597585</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>('정렬', '알고리즘')</t>
+          <t>('디지털', '스', '스토리텔링')</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.1255436666666667</v>
+        <v>0.1585258333333333</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>('예비', '교사')</t>
+          <t>('글', '쓰')</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.1207841666666667</v>
+        <v>0.1532333333333333</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>('학급', '홈페이지')</t>
+          <t>('동영', '상')</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.1180306666666667</v>
+        <v>0.1503363333333333</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>('예비', '교원')</t>
+          <t>('글', '쓰', '기')</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.113996</v>
+        <v>0.1484243333333333</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>('사회', '실재감')</t>
+          <t>('디지털교과서', '서', '활용')</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.1043221666666667</v>
+        <v>0.1369535</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>('컴퓨팅', '사고력')</t>
+          <t>('애', '플리케이션')</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.1024855</v>
+        <v>0.136323</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>('피지컬', '컴퓨팅')</t>
+          <t>('d', '프린터')</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.09840216666666665</v>
+        <v>0.1330783333333334</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>('증강', '현실')</t>
+          <t>('디지털교과서', '과서')</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.09785799999999999</v>
+        <v>0.1292361666666667</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>('사회', '연결망')</t>
+          <t>('자기', '조절', '학습')</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.09759699999999999</v>
+        <v>0.1223576666666667</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>('성격', '유형')</t>
+          <t>('의', '스', '마')</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.09554849999999999</v>
+        <v>0.1198713333333333</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>('중도', '탈락')</t>
+          <t>('체계', '문헌', '고찰')</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.08884183333333333</v>
+        <v>0.115767</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>('영재', '판별')</t>
+          <t>('컴퓨팅', '사', '사고력')</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.08621983333333333</v>
+        <v>0.1156281666666666</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>('원격', '연수')</t>
+          <t>('초점', '맞추', 'ㄴ')</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.0861975</v>
+        <v>0.1153923333333334</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>('디지털', '리터러시')</t>
+          <t>('정보', '활용', '능력')</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.08290449999999999</v>
+        <v>0.1051053333333333</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>('중독', '치료')</t>
+          <t>('통신', '윤리', '교육')</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.08191966666666667</v>
+        <v>0.104509</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '정학습')</t>
+          <t>('증강', '현실')</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.07571383333333334</v>
+        <v>0.09806983333333333</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>('지속', '의향')</t>
+          <t>('사이버', '가', '정학습')</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.07079566666666667</v>
+        <v>0.09752416666666666</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>('통신', '윤리')</t>
+          <t>('디지털교과서', '서')</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.06945733333333333</v>
+        <v>0.09481149999999999</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>('학급', '경영')</t>
+          <t>('중도', '탈락')</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.06926416666666665</v>
+        <v>0.08884183333333333</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>('스마트폰', '중독')</t>
+          <t>('교사', '보조', '로봇')</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.06256366666666666</v>
+        <v>0.08858083333333333</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>('게임', '중독')</t>
+          <t>('d', '프린팅')</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.05929133333333333</v>
+        <v>0.08200533333333332</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>('인터넷', '중독')</t>
+          <t>('데이터', '시각', '교육')</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.05803366666666666</v>
+        <v>0.07846733333333333</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '상담실')</t>
+          <t>('학급', '경영')</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.05527866666666666</v>
+        <v>0.06958883333333334</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>('데이터', '시각')</t>
+          <t>('사이버', '상담', '시스템')</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.05468683333333334</v>
+        <v>0.067511</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>('ict', '리터러시')</t>
+          <t>('스', '마', '스마트폰')</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.05166783333333333</v>
+        <v>0.06518683333333333</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>('과제', '가치')</t>
+          <t>('앱', '개발', '교육')</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.04820199999999999</v>
+        <v>0.05930733333333332</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>('디자인', '사고')</t>
+          <t>('로봇', '활용', 'sw')</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.0395455</v>
+        <v>0.05098716666666666</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>('코딩', '강사')</t>
+          <t>('학습', '지속', '의향')</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.02923733333333333</v>
+        <v>0.03898449999999999</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>('iptv', '유아')</t>
+          <t>('마', '스마트폰', '사용')</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.018032</v>
+        <v>0.03561266666666666</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>('공공', '서비스')</t>
+          <t>('로봇', '보조', '학습')</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.01657583333333334</v>
+        <v>0.02972316666666667</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>('과제', '표절')</t>
+          <t>('그리', 'ㄴ', 'it')</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.01004066666666667</v>
+        <v>0.01360633333333333</v>
       </c>
     </row>
   </sheetData>

--- a/datamining/final_data/topic9_candidates.xlsx
+++ b/datamining/final_data/topic9_candidates.xlsx
@@ -442,31 +442,31 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>('의', '자기', '주도')</t>
+          <t>('향상', '긍정', '영향')</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5781525000000001</v>
+        <v>0.5071441666666666</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>('결과', '다음', '같')</t>
+          <t>('다음', '같')</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4717026666666666</v>
+        <v>0.4929171666666666</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>('연구', '제시', 'ㄴ')</t>
+          <t>('결과', '다음', '같')</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4700518333333334</v>
+        <v>0.4717026666666666</v>
       </c>
     </row>
     <row r="5">
@@ -476,103 +476,103 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.468845</v>
+        <v>0.4709956666666666</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>('학습자', '중심', '의')</t>
+          <t>('자기', '주도', '학습')</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4628216666666666</v>
+        <v>0.4307106666666667</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>('향상', '긍정', 'ㄴ')</t>
+          <t>('집단', '통제', '집단')</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4616311666666667</v>
+        <v>0.4261945</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>('ㄴ', '인재', '양성')</t>
+          <t>('실험', '집단', '통제')</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4508125</v>
+        <v>0.4261945</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>('중', '의', '하나')</t>
+          <t>('학생', '명', '대상')</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.4337536666666666</v>
+        <v>0.4090703333333334</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>('유', '미', 'ㄴ')</t>
+          <t>('간', '상호', '작용')</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.4329866666666667</v>
+        <v>0.4078021666666666</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>('자기', '주도', '학습')</t>
+          <t>('있', '알', '수')</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4298826666666667</v>
+        <v>0.3928803333333333</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>('집단', '통제', '집단')</t>
+          <t>('미치', '영향', '분석')</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4261945</v>
+        <v>0.3845168333333333</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>('학생', '명', '대상')</t>
+          <t>('방법', '평가', '방법')</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4090703333333334</v>
+        <v>0.3810278333333333</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>('얻', '을', '수')</t>
+          <t>('정보교육', '학', '회')</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.392544</v>
+        <v>0.379019</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>('정보교육', '학', '회')</t>
+          <t>('정보교육', '학')</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -582,591 +582,591 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>('정보교육', '학')</t>
+          <t>('점', '의의', '있')</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.379019</v>
+        <v>0.3778126666666667</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>('수준', '맞', '는')</t>
+          <t>('지식', '정보', '사회')</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3789053333333333</v>
+        <v>0.3774473333333334</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>('점', '의의', '있')</t>
+          <t>('목적', '달성', '위하')</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.3778126666666667</v>
+        <v>0.3701985</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>('지식', '정보', '사회')</t>
+          <t>('유', '미')</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.3774473333333334</v>
+        <v>0.3650396666666667</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>('있', '을', '것')</t>
+          <t>('산업', '혁명', '시대')</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.37625</v>
+        <v>0.359074</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>('목적', '달성', '위하')</t>
+          <t>('인재', '양성', '위하')</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.3701985</v>
+        <v>0.3583843333333333</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>('는', '영향', '분석')</t>
+          <t>('차', '산업', '혁명')</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.3674061666666667</v>
+        <v>0.3573798333333333</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>('유', '미')</t>
+          <t>('분석', '그', '결과')</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.3650396666666667</v>
+        <v>0.3510435</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>('ㄴ', '형태', '의')</t>
+          <t>('학', '회')</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.3638636666666667</v>
+        <v>0.3505223333333333</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>('산업', '혁명', '시대')</t>
+          <t>('영향', '미치', '것')</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.359074</v>
+        <v>0.3484828333333334</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>('인재', '양성', '위하')</t>
+          <t>('도움', '주', '수')</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.3583843333333333</v>
+        <v>0.3477673333333333</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>('차', '산업', '혁명')</t>
+          <t>('산업', '혁명')</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.3573798333333333</v>
+        <v>0.347723</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>('다는', '점', '의의')</t>
+          <t>('인재', '양성')</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.3560525</v>
+        <v>0.3388906666666667</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>('분석', '그', '결과')</t>
+          <t>('재량', '활동', '시간')</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.3510435</v>
+        <v>0.3366606666666667</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>('학', '회')</t>
+          <t>('학년', '학생', '명')</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.3505223333333333</v>
+        <v>0.332071</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>('찾', '을', '수')</t>
+          <t>('이', '따르', '논문')</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.3481903333333333</v>
+        <v>0.3231015</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>('산업', '혁명')</t>
+          <t>('그', '효과', '검증')</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.347723</v>
+        <v>0.318251</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>('기술', '의', '발달')</t>
+          <t>('시스템', '설계', '구현')</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.3412045</v>
+        <v>0.3182335</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>('인재', '양성')</t>
+          <t>('영향', '주', '것')</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.3388906666666667</v>
+        <v>0.3181763333333333</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>('도움', '주', 'ㄹ')</t>
+          <t>('과정', '표준', '모델')</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.3367651666666667</v>
+        <v>0.3077801666666667</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>('재량', '활동', '시간')</t>
+          <t>('대하', '관심', '높')</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.3366606666666667</v>
+        <v>0.3075423333333334</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>('이', '같', '은')</t>
+          <t>('학습', '방법', '평가')</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.3114991666666667</v>
+        <v>0.3031481666666667</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>('과정', '표준', '모델')</t>
+          <t>('설문', '조사', '실시')</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.3077801666666667</v>
+        <v>0.2998908333333333</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>('ㄴ', '관심', '높')</t>
+          <t>('자', '기', '주도')</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.3075423333333334</v>
+        <v>0.2940948333333333</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>('ㄴ', '기초', '자료')</t>
+          <t>('기', '주도', '학습')</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.3004213333333333</v>
+        <v>0.2854848333333334</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>('는', '데', '있')</t>
+          <t>('사전', '사후')</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.2999571666666666</v>
+        <v>0.2844606666666666</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>('설문', '조사', '실시')</t>
+          <t>('자', '기')</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.2998908333333333</v>
+        <v>0.2701663333333333</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>('자', '기', '주도')</t>
+          <t>('표본', 't')</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.2940948333333333</v>
+        <v>0.2689938333333334</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>('분석', '분석', '결과')</t>
+          <t>('것', '알', '수')</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.2875916666666667</v>
+        <v>0.2623675</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>('기', '주도', '학습')</t>
+          <t>('t', '검정')</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.2854848333333334</v>
+        <v>0.2487161666666666</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>('사전', '사후')</t>
+          <t>('교육', '프로그래밍', '언어')</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.2844606666666666</v>
+        <v>0.247991</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>('자', '기')</t>
+          <t>('사전', '사후', '검사')</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.2701663333333333</v>
+        <v>0.245906</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>('표본', 't')</t>
+          <t>('주도', '학습', '능력')</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.2689938333333334</v>
+        <v>0.2458885</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>('영향', '주', '는')</t>
+          <t>('상호', '작용')</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.2644886666666666</v>
+        <v>0.2442815</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>('것', '알', 'ㄹ')</t>
+          <t>('스', '스마트', '교육')</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.2617038333333334</v>
+        <v>0.2401648333333334</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>('ㄹ', '필요', '있')</t>
+          <t>('통신', '기술', '교육')</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.2560656666666667</v>
+        <v>0.2276078333333333</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>('t', '검정')</t>
+          <t>('대응', '표본', 't')</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.2487161666666666</v>
+        <v>0.2229436666666667</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>('사전', '사후', '검사')</t>
+          <t>('대응', '표본')</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.245906</v>
+        <v>0.2229436666666667</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>('주도', '학습', '능력')</t>
+          <t>('표본', 't', '검정')</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.2458885</v>
+        <v>0.2106863333333333</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>('상호', '작용')</t>
+          <t>('초점', '맞추')</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.2442815</v>
+        <v>0.2038551666666667</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>('스', '스마트', '교육')</t>
+          <t>('영', '재')</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.2401648333333334</v>
+        <v>0.1986486666666666</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>('통신', '기술', '교육')</t>
+          <t>('문제', '중심', '학습')</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.2326538333333333</v>
+        <v>0.1979446666666667</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>('대응', '표본')</t>
+          <t>('전자', '책')</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.2229436666666667</v>
+        <v>0.1949685</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>('대응', '표본', 't')</t>
+          <t>('플립', '러닝')</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.2229436666666667</v>
+        <v>0.1934961666666667</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>('표본', 't', '검정')</t>
+          <t>('메', '타')</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.2106863333333333</v>
+        <v>0.192225</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>('영', '재')</t>
+          <t>('정보', '영', '재')</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.1986486666666666</v>
+        <v>0.1768893333333333</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>('플립', '러닝')</t>
+          <t>('computational', 'thinking')</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.1934961666666667</v>
+        <v>0.165827</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>('메', '타')</t>
+          <t>('의사', '결정')</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.192225</v>
+        <v>0.1653878333333333</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>('문제', '중심', '학습')</t>
+          <t>('동', '영', '상')</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.1904875</v>
+        <v>0.161427</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>('정보', '영', '재')</t>
+          <t>('초등', '예비', '교사')</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.1768893333333333</v>
+        <v>0.1597585</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>('예비', '교원', '의')</t>
+          <t>('디지털', '스', '스토리텔링')</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.1728546666666667</v>
+        <v>0.1585258333333333</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>('computational', 'thinking')</t>
+          <t>('글', '쓰')</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.165827</v>
+        <v>0.1532333333333333</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>('의사', '결정')</t>
+          <t>('동영', '상')</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.1653878333333333</v>
+        <v>0.1503363333333333</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>('동', '영', '상')</t>
+          <t>('글', '쓰', '기')</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.161427</v>
+        <v>0.1484243333333333</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>('초등', '예비', '교사')</t>
+          <t>('통신', '윤리', '의식')</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.1597585</v>
+        <v>0.1451201666666667</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>('디지털', '스', '스토리텔링')</t>
+          <t>('애', '플리케이션')</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.1585258333333333</v>
+        <v>0.136323</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>('글', '쓰')</t>
+          <t>('통신', '기술', '활용')</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.1532333333333333</v>
+        <v>0.1336511666666667</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>('동영', '상')</t>
+          <t>('d', '프린터')</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.1503363333333333</v>
+        <v>0.1330783333333334</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>('글', '쓰', '기')</t>
+          <t>('디지털교과서', '과서')</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.1484243333333333</v>
+        <v>0.1292361666666667</v>
       </c>
     </row>
     <row r="75">
@@ -1176,203 +1176,203 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.1369535</v>
+        <v>0.1250441666666667</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>('애', '플리케이션')</t>
+          <t>('자기', '조절', '학습')</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.136323</v>
+        <v>0.1223576666666667</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>('d', '프린터')</t>
+          <t>('체계', '문헌', '고찰')</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.1330783333333334</v>
+        <v>0.115767</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '과서')</t>
+          <t>('컴퓨팅', '사', '사고력')</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.1292361666666667</v>
+        <v>0.1156281666666666</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>('자기', '조절', '학습')</t>
+          <t>('정보', '활용', '능력')</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.1223576666666667</v>
+        <v>0.1051053333333333</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>('의', '스', '마')</t>
+          <t>('통신', '윤리', '교육')</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.1198713333333333</v>
+        <v>0.102739</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>('체계', '문헌', '고찰')</t>
+          <t>('증강', '현실')</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.115767</v>
+        <v>0.09806983333333333</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>('컴퓨팅', '사', '사고력')</t>
+          <t>('사이버', '가', '정학습')</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.1156281666666666</v>
+        <v>0.09752416666666666</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>('초점', '맞추', 'ㄴ')</t>
+          <t>('디지털교과서', '서')</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.1153923333333334</v>
+        <v>0.09481149999999999</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>('정보', '활용', '능력')</t>
+          <t>('중도', '탈락')</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.1051053333333333</v>
+        <v>0.08884183333333333</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>('통신', '윤리', '교육')</t>
+          <t>('교사', '보조', '로봇')</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.104509</v>
+        <v>0.08858083333333333</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>('증강', '현실')</t>
+          <t>('게임', '중독', '치료')</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.09806983333333333</v>
+        <v>0.08840566666666666</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '가', '정학습')</t>
+          <t>('디지털교과서', '과서', '사용')</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.09752416666666666</v>
+        <v>0.08718733333333333</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '서')</t>
+          <t>('d', '프린팅')</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.09481149999999999</v>
+        <v>0.08200533333333332</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>('중도', '탈락')</t>
+          <t>('데이터', '시각', '교육')</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.08884183333333333</v>
+        <v>0.07846733333333333</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>('교사', '보조', '로봇')</t>
+          <t>('학급', '경영')</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.08858083333333333</v>
+        <v>0.06958883333333334</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>('d', '프린팅')</t>
+          <t>('정보', '통신', '윤리')</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.08200533333333332</v>
+        <v>0.069523</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>('데이터', '시각', '교육')</t>
+          <t>('마', '스마트폰', '중독')</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.07846733333333333</v>
+        <v>0.06804549999999999</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>('학급', '경영')</t>
+          <t>('사이버', '상담', '시스템')</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.06958883333333334</v>
+        <v>0.067511</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '상담', '시스템')</t>
+          <t>('스', '마', '스마트폰')</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.067511</v>
+        <v>0.06518683333333333</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>('스', '마', '스마트폰')</t>
+          <t>('마', '스마트폰')</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -1392,11 +1392,11 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>('로봇', '활용', 'sw')</t>
+          <t>('정보', '과학', '영재')</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.05098716666666666</v>
+        <v>0.0454155</v>
       </c>
     </row>
     <row r="98">
@@ -1432,7 +1432,7 @@
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>('그리', 'ㄴ', 'it')</t>
+          <t>('그리', 'it')</t>
         </is>
       </c>
       <c r="B101" t="n">

--- a/datamining/final_data/topic9_candidates.xlsx
+++ b/datamining/final_data/topic9_candidates.xlsx
@@ -446,7 +446,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5071441666666666</v>
+        <v>0.4838552083333333</v>
       </c>
     </row>
     <row r="3">
@@ -456,27 +456,27 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4929171666666666</v>
+        <v>0.4675239583333333</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>('결과', '다음', '같')</t>
+          <t>('세기', '지식', '정보')</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4717026666666666</v>
+        <v>0.4506695833333333</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>('세기', '지식', '정보')</t>
+          <t>('결과', '다음', '같')</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4709956666666666</v>
+        <v>0.4457933333333333</v>
       </c>
     </row>
     <row r="6">
@@ -486,117 +486,117 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4307106666666667</v>
+        <v>0.4163983333333333</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>('집단', '통제', '집단')</t>
+          <t>('실험', '집단', '통제')</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4261945</v>
+        <v>0.401460625</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>('실험', '집단', '통제')</t>
+          <t>('집단', '통제', '집단')</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4261945</v>
+        <v>0.401460625</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>('학생', '명', '대상')</t>
+          <t>('간', '상호', '작용')</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.4090703333333334</v>
+        <v>0.3854777083333333</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>('간', '상호', '작용')</t>
+          <t>('학생', '명', '대상')</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.4078021666666666</v>
+        <v>0.3842729166666667</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>('있', '알', '수')</t>
+          <t>('방법', '평가', '방법')</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3928803333333333</v>
+        <v>0.3670222916666667</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>('미치', '영향', '분석')</t>
+          <t>('있', '알', '수')</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3845168333333333</v>
+        <v>0.3656404166666666</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>('방법', '평가', '방법')</t>
+          <t>('미치', '영향', '분석')</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3810278333333333</v>
+        <v>0.3644385416666667</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>('정보교육', '학', '회')</t>
+          <t>('정보교육', '학')</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.379019</v>
+        <v>0.36284125</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>('정보교육', '학')</t>
+          <t>('정보교육', '학', '회')</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.379019</v>
+        <v>0.36284125</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>('점', '의의', '있')</t>
+          <t>('지식', '정보', '사회')</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.3778126666666667</v>
+        <v>0.3559191666666667</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>('지식', '정보', '사회')</t>
+          <t>('점', '의의', '있')</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3774473333333334</v>
+        <v>0.3480033333333333</v>
       </c>
     </row>
     <row r="18">
@@ -606,7 +606,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.3701985</v>
+        <v>0.346145625</v>
       </c>
     </row>
     <row r="19">
@@ -616,17 +616,17 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.3650396666666667</v>
+        <v>0.3428695833333333</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>('산업', '혁명', '시대')</t>
+          <t>('학', '회')</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.359074</v>
+        <v>0.3343929166666667</v>
       </c>
     </row>
     <row r="21">
@@ -636,87 +636,87 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.3583843333333333</v>
+        <v>0.3303104166666667</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>('차', '산업', '혁명')</t>
+          <t>('산업', '혁명', '시대')</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.3573798333333333</v>
+        <v>0.3279475000000001</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>('분석', '그', '결과')</t>
+          <t>('차', '산업', '혁명')</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.3510435</v>
+        <v>0.3270122916666667</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>('학', '회')</t>
+          <t>('영향', '미치', '것')</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.3505223333333333</v>
+        <v>0.3262435416666667</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>('영향', '미치', '것')</t>
+          <t>('도움', '주', '수')</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.3484828333333334</v>
+        <v>0.3258816666666666</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>('도움', '주', '수')</t>
+          <t>('분석', '그', '결과')</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.3477673333333333</v>
+        <v>0.325746875</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>('산업', '혁명')</t>
+          <t>('재량', '활동', '시간')</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.347723</v>
+        <v>0.3219433333333334</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>('인재', '양성')</t>
+          <t>('산업', '혁명')</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.3388906666666667</v>
+        <v>0.31817625</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>('재량', '활동', '시간')</t>
+          <t>('인재', '양성')</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.3366606666666667</v>
+        <v>0.3147283333333333</v>
       </c>
     </row>
     <row r="30">
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.332071</v>
+        <v>0.31152125</v>
       </c>
     </row>
     <row r="31">
@@ -736,87 +736,87 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.3231015</v>
+        <v>0.301846875</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>('그', '효과', '검증')</t>
+          <t>('시스템', '설계', '구현')</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.318251</v>
+        <v>0.299964375</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>('시스템', '설계', '구현')</t>
+          <t>('영향', '주', '것')</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.3182335</v>
+        <v>0.2969004166666667</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>('영향', '주', '것')</t>
+          <t>('그', '효과', '검증')</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.3181763333333333</v>
+        <v>0.29321875</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>('과정', '표준', '모델')</t>
+          <t>('학습', '방법', '평가')</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.3077801666666667</v>
+        <v>0.2917777083333333</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>('대하', '관심', '높')</t>
+          <t>('과정', '표준', '모델')</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.3075423333333334</v>
+        <v>0.2900602083333333</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>('학습', '방법', '평가')</t>
+          <t>('자', '기', '주도')</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.3031481666666667</v>
+        <v>0.2829760416666667</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>('설문', '조사', '실시')</t>
+          <t>('대하', '관심', '높')</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.2998908333333333</v>
+        <v>0.2810854166666666</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>('자', '기', '주도')</t>
+          <t>('설문', '조사', '실시')</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.2940948333333333</v>
+        <v>0.2780935416666667</v>
       </c>
     </row>
     <row r="40">
@@ -826,7 +826,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.2854848333333334</v>
+        <v>0.2743160416666667</v>
       </c>
     </row>
     <row r="41">
@@ -836,7 +836,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.2844606666666666</v>
+        <v>0.2587908333333333</v>
       </c>
     </row>
     <row r="42">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.2701663333333333</v>
+        <v>0.2574579166666667</v>
       </c>
     </row>
     <row r="43">
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.2689938333333334</v>
+        <v>0.2396272916666667</v>
       </c>
     </row>
     <row r="44">
@@ -866,17 +866,17 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.2623675</v>
+        <v>0.237519375</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>('t', '검정')</t>
+          <t>('주도', '학습', '능력')</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.2487161666666666</v>
+        <v>0.236273125</v>
       </c>
     </row>
     <row r="46">
@@ -886,47 +886,47 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.247991</v>
+        <v>0.23166875</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>('사전', '사후', '검사')</t>
+          <t>('상호', '작용')</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.245906</v>
+        <v>0.230066875</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>('주도', '학습', '능력')</t>
+          <t>('스', '스마트', '교육')</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.2458885</v>
+        <v>0.2278060416666667</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>('상호', '작용')</t>
+          <t>('t', '검정')</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.2442815</v>
+        <v>0.2193277083333333</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>('스', '스마트', '교육')</t>
+          <t>('사전', '사후', '검사')</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.2401648333333334</v>
+        <v>0.2180175</v>
       </c>
     </row>
     <row r="51">
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.2276078333333333</v>
+        <v>0.2154672916666667</v>
       </c>
     </row>
     <row r="52">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.2229436666666667</v>
+        <v>0.1922995833333333</v>
       </c>
     </row>
     <row r="53">
@@ -956,67 +956,67 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.2229436666666667</v>
+        <v>0.1922995833333333</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>('표본', 't', '검정')</t>
+          <t>('문제', '중심', '학습')</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.2106863333333333</v>
+        <v>0.1897583333333333</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>('초점', '맞추')</t>
+          <t>('플립', '러닝')</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.2038551666666667</v>
+        <v>0.1891202083333333</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>('영', '재')</t>
+          <t>('전자', '책')</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.1986486666666666</v>
+        <v>0.184560625</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>('문제', '중심', '학습')</t>
+          <t>('초점', '맞추')</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.1979446666666667</v>
+        <v>0.1835439583333334</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>('전자', '책')</t>
+          <t>('영', '재')</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.1949685</v>
+        <v>0.1823058333333333</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>('플립', '러닝')</t>
+          <t>('표본', 't', '검정')</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.1934961666666667</v>
+        <v>0.1811979166666667</v>
       </c>
     </row>
     <row r="60">
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.192225</v>
+        <v>0.17473125</v>
       </c>
     </row>
     <row r="61">
@@ -1036,37 +1036,37 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.1768893333333333</v>
+        <v>0.1617816666666667</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>('computational', 'thinking')</t>
+          <t>('의사', '결정')</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.165827</v>
+        <v>0.1537347916666666</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>('의사', '결정')</t>
+          <t>('디지털', '스', '스토리텔링')</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.1653878333333333</v>
+        <v>0.1490872916666667</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>('동', '영', '상')</t>
+          <t>('computational', 'thinking')</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.161427</v>
+        <v>0.14887875</v>
       </c>
     </row>
     <row r="65">
@@ -1076,17 +1076,17 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.1597585</v>
+        <v>0.147615625</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>('디지털', '스', '스토리텔링')</t>
+          <t>('동', '영', '상')</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.1585258333333333</v>
+        <v>0.14655125</v>
       </c>
     </row>
     <row r="67">
@@ -1096,97 +1096,97 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.1532333333333333</v>
+        <v>0.1429216666666666</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>('동영', '상')</t>
+          <t>('글', '쓰', '기')</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.1503363333333333</v>
+        <v>0.1402679166666667</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>('글', '쓰', '기')</t>
+          <t>('통신', '윤리', '의식')</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.1484243333333333</v>
+        <v>0.1368277083333333</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>('통신', '윤리', '의식')</t>
+          <t>('동영', '상')</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.1451201666666667</v>
+        <v>0.1339354166666667</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>('애', '플리케이션')</t>
+          <t>('통신', '기술', '활용')</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.136323</v>
+        <v>0.1279639583333333</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>('통신', '기술', '활용')</t>
+          <t>('애', '플리케이션')</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.1336511666666667</v>
+        <v>0.12295625</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>('d', '프린터')</t>
+          <t>('디지털교과서', '과서')</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.1330783333333334</v>
+        <v>0.1216002083333333</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '과서')</t>
+          <t>('d', '프린터')</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.1292361666666667</v>
+        <v>0.1210804166666667</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '서', '활용')</t>
+          <t>('자기', '조절', '학습')</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.1250441666666667</v>
+        <v>0.1183670833333333</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>('자기', '조절', '학습')</t>
+          <t>('디지털교과서', '서', '활용')</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.1223576666666667</v>
+        <v>0.1161702083333333</v>
       </c>
     </row>
     <row r="77">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.115767</v>
+        <v>0.10631625</v>
       </c>
     </row>
     <row r="78">
@@ -1206,7 +1206,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.1156281666666666</v>
+        <v>0.1050102083333333</v>
       </c>
     </row>
     <row r="79">
@@ -1216,7 +1216,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.1051053333333333</v>
+        <v>0.09989416666666667</v>
       </c>
     </row>
     <row r="80">
@@ -1226,27 +1226,27 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.102739</v>
+        <v>0.09606125000000001</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>('증강', '현실')</t>
+          <t>('사이버', '가', '정학습')</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.09806983333333333</v>
+        <v>0.09279020833333333</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '가', '정학습')</t>
+          <t>('증강', '현실')</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.09752416666666666</v>
+        <v>0.09231729166666666</v>
       </c>
     </row>
     <row r="83">
@@ -1256,27 +1256,27 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.09481149999999999</v>
+        <v>0.08782937499999999</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>('중도', '탈락')</t>
+          <t>('교사', '보조', '로봇')</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.08884183333333333</v>
+        <v>0.08322604166666667</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>('교사', '보조', '로봇')</t>
+          <t>('중도', '탈락')</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.08858083333333333</v>
+        <v>0.08121229166666666</v>
       </c>
     </row>
     <row r="86">
@@ -1286,7 +1286,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.08840566666666666</v>
+        <v>0.07966708333333333</v>
       </c>
     </row>
     <row r="87">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.08718733333333333</v>
+        <v>0.07780166666666666</v>
       </c>
     </row>
     <row r="88">
@@ -1306,7 +1306,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.08200533333333332</v>
+        <v>0.07639916666666666</v>
       </c>
     </row>
     <row r="89">
@@ -1316,7 +1316,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.07846733333333333</v>
+        <v>0.07013416666666666</v>
       </c>
     </row>
     <row r="90">
@@ -1326,7 +1326,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.06958883333333334</v>
+        <v>0.06584104166666667</v>
       </c>
     </row>
     <row r="91">
@@ -1336,27 +1336,27 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.069523</v>
+        <v>0.06469375000000001</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>('마', '스마트폰', '중독')</t>
+          <t>('사이버', '상담', '시스템')</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.06804549999999999</v>
+        <v>0.06092625</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '상담', '시스템')</t>
+          <t>('마', '스마트폰', '중독')</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.067511</v>
+        <v>0.06022187499999999</v>
       </c>
     </row>
     <row r="94">
@@ -1366,7 +1366,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.06518683333333333</v>
+        <v>0.05859104166666667</v>
       </c>
     </row>
     <row r="95">
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.06518683333333333</v>
+        <v>0.05859104166666667</v>
       </c>
     </row>
     <row r="96">
@@ -1386,7 +1386,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.05930733333333332</v>
+        <v>0.05432666666666666</v>
       </c>
     </row>
     <row r="97">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.0454155</v>
+        <v>0.041631875</v>
       </c>
     </row>
     <row r="98">
@@ -1406,7 +1406,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.03898449999999999</v>
+        <v>0.034948125</v>
       </c>
     </row>
     <row r="99">
@@ -1416,7 +1416,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.03561266666666666</v>
+        <v>0.02786833333333333</v>
       </c>
     </row>
     <row r="100">
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.02972316666666667</v>
+        <v>0.02076145833333334</v>
       </c>
     </row>
     <row r="101">
@@ -1436,7 +1436,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.01360633333333333</v>
+        <v>0.007045416666666665</v>
       </c>
     </row>
   </sheetData>
